--- a/SEP490_API/wwwroot/Templates/template_student.xlsx
+++ b/SEP490_API/wwwroot/Templates/template_student.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\SEP490_BE\SEP490_API\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43513E8A-BFD9-47A3-918D-AD9BE3E5A9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DFB3B5-AB84-4FC5-AD39-A9C1B89E5536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1125" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="74">
   <si>
     <t>STT</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Nghề nghiệp mẹ</t>
   </si>
   <si>
-    <t>Lê Văn Học Sinh</t>
-  </si>
-  <si>
     <t>600 Nguyễn Văn Cừ</t>
   </si>
   <si>
@@ -244,6 +241,12 @@
   </si>
   <si>
     <t>Nội chợ</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t>Lê Văn Bé</t>
   </si>
 </sst>
 </file>
@@ -571,11 +574,14 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
@@ -639,49 +645,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
         <v>50</v>
       </c>
-      <c r="I2" t="s">
-        <v>51</v>
-      </c>
       <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" t="s">
         <v>52</v>
       </c>
-      <c r="K2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
         <v>62</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="Q2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -689,49 +695,49 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
       <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
         <v>52</v>
       </c>
-      <c r="K3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" t="s">
-        <v>53</v>
-      </c>
       <c r="M3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
       <c r="P3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -739,49 +745,49 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" t="s">
-        <v>51</v>
-      </c>
       <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" t="s">
         <v>52</v>
       </c>
-      <c r="K4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" t="s">
-        <v>53</v>
-      </c>
       <c r="M4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
         <v>62</v>
       </c>
-      <c r="O4" t="s">
-        <v>63</v>
-      </c>
       <c r="P4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -789,41 +795,41 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c r="I5" t="s">
-        <v>51</v>
-      </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M5" s="1"/>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -831,49 +837,49 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
       <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
         <v>52</v>
       </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" t="s">
-        <v>53</v>
-      </c>
       <c r="M6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N6" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" t="s">
         <v>62</v>
       </c>
-      <c r="O6" t="s">
-        <v>63</v>
-      </c>
       <c r="P6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -881,31 +887,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
         <v>50</v>
       </c>
-      <c r="I7" t="s">
-        <v>51</v>
-      </c>
       <c r="J7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M7" s="1"/>
       <c r="P7" s="1"/>
@@ -915,49 +921,49 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" t="s">
         <v>50</v>
       </c>
-      <c r="I8" t="s">
-        <v>51</v>
-      </c>
       <c r="J8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
         <v>52</v>
       </c>
-      <c r="K8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" t="s">
-        <v>53</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N8" t="s">
+        <v>61</v>
+      </c>
+      <c r="O8" t="s">
         <v>62</v>
       </c>
-      <c r="O8" t="s">
-        <v>63</v>
-      </c>
       <c r="P8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -965,49 +971,49 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
         <v>50</v>
       </c>
-      <c r="I9" t="s">
-        <v>51</v>
-      </c>
       <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" t="s">
         <v>52</v>
       </c>
-      <c r="K9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" t="s">
-        <v>53</v>
-      </c>
       <c r="M9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N9" t="s">
+        <v>61</v>
+      </c>
+      <c r="O9" t="s">
         <v>62</v>
       </c>
-      <c r="O9" t="s">
-        <v>63</v>
-      </c>
       <c r="P9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1015,40 +1021,40 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" t="s">
-        <v>51</v>
-      </c>
       <c r="J10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" t="s">
         <v>52</v>
       </c>
-      <c r="K10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" t="s">
-        <v>53</v>
-      </c>
       <c r="M10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P10" s="1"/>
     </row>
@@ -1057,49 +1063,49 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="s">
         <v>49</v>
       </c>
-      <c r="H11" t="s">
-        <v>50</v>
-      </c>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" t="s">
         <v>52</v>
       </c>
-      <c r="K11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" t="s">
-        <v>53</v>
-      </c>
       <c r="M11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" t="s">
         <v>61</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>62</v>
       </c>
-      <c r="O11" t="s">
-        <v>63</v>
-      </c>
       <c r="P11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" t="s">
         <v>71</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
